--- a/副本工作簿1.xlsx
+++ b/副本工作簿1.xlsx
@@ -4,17 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14200"/>
+    <workbookView windowWidth="28800" windowHeight="11820"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="女装" sheetId="1" r:id="rId1"/>
+    <sheet name="男装" sheetId="2" r:id="rId2"/>
+    <sheet name="其他" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="45">
+  <si>
+    <t>女装产品编码对照表</t>
+  </si>
   <si>
     <t>供应商网址</t>
   </si>
@@ -79,6 +84,15 @@
     <t>C0006</t>
   </si>
   <si>
+    <t>https://detail.1688.com/offer/687983545608.html?_t=1679404842269&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0</t>
+  </si>
+  <si>
+    <t>Q22S8249</t>
+  </si>
+  <si>
+    <t>C0010</t>
+  </si>
+  <si>
     <t>https://detail.1688.com/offer/706516103752.html?_t=1679404722645&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0</t>
   </si>
   <si>
@@ -88,6 +102,15 @@
     <t>C0007</t>
   </si>
   <si>
+    <t>https://detail.1688.com/offer/631132088745.html?spm=a360q.7751291.0.0.10c63138P9CXm4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S390476 </t>
+  </si>
+  <si>
+    <t>C0011</t>
+  </si>
+  <si>
     <t>https://detail.1688.com/offer/704879464336.html?_t=1679404747601&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0</t>
   </si>
   <si>
@@ -97,6 +120,15 @@
     <t>C0008</t>
   </si>
   <si>
+    <t>https://detail.1688.com/offer/643075483041.html?spm=a2615.7691456.autotrace-offerGeneral.22.49d8221eaI1mvl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q23S8283 </t>
+  </si>
+  <si>
+    <t>C0012</t>
+  </si>
+  <si>
     <t>https://detail.1688.com/offer/701413115226.html?_t=1679404825724&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0</t>
   </si>
   <si>
@@ -104,33 +136,6 @@
   </si>
   <si>
     <t>C0009</t>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/687983545608.html?_t=1679404842269&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0</t>
-  </si>
-  <si>
-    <t>Q22S8249</t>
-  </si>
-  <si>
-    <t>C0010</t>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/631132088745.html?spm=a360q.7751291.0.0.10c63138P9CXm4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S390476 </t>
-  </si>
-  <si>
-    <t>C0011</t>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/643075483041.html?spm=a2615.7691456.autotrace-offerGeneral.22.49d8221eaI1mvl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q23S8283 </t>
-  </si>
-  <si>
-    <t>C0012</t>
   </si>
   <si>
     <t>https://detail.1688.com/offer/627929601795.html?spm=a360q.7751291.0.0.432d3138NNYxTL</t>
@@ -153,10 +158,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -209,16 +214,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -241,32 +253,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,14 +267,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -302,6 +298,21 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -309,17 +320,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -338,181 +343,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,15 +666,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -681,6 +677,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,6 +716,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -726,191 +757,168 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1270,197 +1278,1476 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:D16"/>
+  <dimension ref="B2:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.73076923076923" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="4" width="15.6346153846154" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.55"/>
-    <row r="2" ht="25" customHeight="1" spans="2:4">
+    <row r="2" ht="25" customHeight="1" spans="2:14">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="2:14">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" ht="25" customHeight="1" spans="2:4">
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="G3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="2:14">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" ht="25" customHeight="1" spans="2:4">
-      <c r="B4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="G4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="2:14">
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="2:4">
-      <c r="B5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="G5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="2:14">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="2:4">
-      <c r="B6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="G6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="2:14">
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="25" customHeight="1" spans="2:14">
+      <c r="B8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="25" customHeight="1" spans="2:14">
+      <c r="B9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" ht="25" customHeight="1" spans="2:14">
+      <c r="B10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" ht="25" customHeight="1" spans="2:14">
+      <c r="B11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" ht="25" customHeight="1" spans="2:14">
+      <c r="B12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" ht="17.55" spans="2:14">
+      <c r="B13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" ht="17.55" spans="2:9">
+      <c r="B14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" ht="17.55" spans="2:9">
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="L2:N2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="https://detail.1688.com/offer/703224144496.html?_t=1679404315270&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://detail.1688.com/offer/703703041747.html?_t=1679404372448&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://detail.1688.com/offer/701961427186.html?_t=1679404394156&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="B7" r:id="rId4" display="https://detail.1688.com/offer/670459086124.html?_t=1679404643337&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="B8" r:id="rId5" display="https://detail.1688.com/offer/677511886339.html?spm=a2615.2177701.shopprom.6.5ec874dfbzXyIS"/>
+    <hyperlink ref="B9" r:id="rId6" display="https://detail.1688.com/offer/678209096366.html?_t=1679404686647&amp;spm=a2615.7691456.co_1_0_tradenumdown_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="B10" r:id="rId7" display="https://detail.1688.com/offer/706516103752.html?_t=1679404722645&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="B11" r:id="rId8" display="https://detail.1688.com/offer/704879464336.html?_t=1679404747601&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="B12" r:id="rId9" display="https://detail.1688.com/offer/701413115226.html?_t=1679404825724&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="B13" r:id="rId10" display="https://detail.1688.com/offer/687983545608.html?_t=1679404842269&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0" tooltip="https://detail.1688.com/offer/687983545608.html?_t=1679404842269&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="B14" r:id="rId11" display="https://detail.1688.com/offer/631132088745.html?spm=a360q.7751291.0.0.10c63138P9CXm4" tooltip="https://detail.1688.com/offer/631132088745.html?spm=a360q.7751291.0.0.10c63138P9CXm4"/>
+    <hyperlink ref="G4" r:id="rId1" display="https://detail.1688.com/offer/703224144496.html?_t=1679404315270&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="G5" r:id="rId2" display="https://detail.1688.com/offer/703703041747.html?_t=1679404372448&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="G6" r:id="rId3" display="https://detail.1688.com/offer/701961427186.html?_t=1679404394156&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="G7" r:id="rId4" display="https://detail.1688.com/offer/670459086124.html?_t=1679404643337&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="G8" r:id="rId5" display="https://detail.1688.com/offer/677511886339.html?spm=a2615.2177701.shopprom.6.5ec874dfbzXyIS"/>
+    <hyperlink ref="G9" r:id="rId6" display="https://detail.1688.com/offer/678209096366.html?_t=1679404686647&amp;spm=a2615.7691456.co_1_0_tradenumdown_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="G10" r:id="rId7" display="https://detail.1688.com/offer/706516103752.html?_t=1679404722645&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="G11" r:id="rId10" display="https://detail.1688.com/offer/687983545608.html?_t=1679404842269&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0" tooltip="https://detail.1688.com/offer/687983545608.html?_t=1679404842269&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="G12" r:id="rId11" display="https://detail.1688.com/offer/631132088745.html?spm=a360q.7751291.0.0.10c63138P9CXm4" tooltip="https://detail.1688.com/offer/631132088745.html?spm=a360q.7751291.0.0.10c63138P9CXm4"/>
+    <hyperlink ref="G15" r:id="rId12" display="https://detail.1688.com/offer/627929601795.html?spm=a360q.7751291.0.0.432d3138NNYxTL"/>
+    <hyperlink ref="L4" r:id="rId1" display="https://detail.1688.com/offer/703224144496.html?_t=1679404315270&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="L5" r:id="rId2" display="https://detail.1688.com/offer/703703041747.html?_t=1679404372448&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="L6" r:id="rId3" display="https://detail.1688.com/offer/701961427186.html?_t=1679404394156&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="L7" r:id="rId4" display="https://detail.1688.com/offer/670459086124.html?_t=1679404643337&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="L8" r:id="rId5" display="https://detail.1688.com/offer/677511886339.html?spm=a2615.2177701.shopprom.6.5ec874dfbzXyIS"/>
+    <hyperlink ref="L9" r:id="rId10" display="https://detail.1688.com/offer/687983545608.html?_t=1679404842269&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0" tooltip="https://detail.1688.com/offer/687983545608.html?_t=1679404842269&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="L10" r:id="rId11" display="https://detail.1688.com/offer/631132088745.html?spm=a360q.7751291.0.0.10c63138P9CXm4" tooltip="https://detail.1688.com/offer/631132088745.html?spm=a360q.7751291.0.0.10c63138P9CXm4"/>
+    <hyperlink ref="L13" r:id="rId12" display="https://detail.1688.com/offer/627929601795.html?spm=a360q.7751291.0.0.432d3138NNYxTL"/>
+    <hyperlink ref="B17" r:id="rId12" display="https://detail.1688.com/offer/627929601795.html?spm=a360q.7751291.0.0.432d3138NNYxTL"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:N17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetData>
+    <row r="2" ht="17.55" spans="2:14">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="34" spans="2:14">
+      <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="C7" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="2:4">
-      <c r="B7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="G7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="34" spans="2:14">
+      <c r="B8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="C8" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" ht="25" customHeight="1" spans="2:4">
-      <c r="B8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="G8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="C9" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" ht="25" customHeight="1" spans="2:4">
-      <c r="B9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="G9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" ht="17.55" spans="2:14">
+      <c r="B13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="C13" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" ht="25" customHeight="1" spans="2:4">
-      <c r="B10" s="7" t="s">
+      <c r="D13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="G13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" ht="17.55" spans="2:14">
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" ht="17.55" spans="2:14">
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" ht="17.55" spans="2:14">
+      <c r="B17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="L2:N2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="https://detail.1688.com/offer/703224144496.html?_t=1679404315270&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://detail.1688.com/offer/703703041747.html?_t=1679404372448&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://detail.1688.com/offer/701961427186.html?_t=1679404394156&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="B7" r:id="rId4" display="https://detail.1688.com/offer/670459086124.html?_t=1679404643337&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="B8" r:id="rId5" display="https://detail.1688.com/offer/677511886339.html?spm=a2615.2177701.shopprom.6.5ec874dfbzXyIS"/>
+    <hyperlink ref="B9" r:id="rId6" display="https://detail.1688.com/offer/678209096366.html?_t=1679404686647&amp;spm=a2615.7691456.co_1_0_tradenumdown_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="B10" r:id="rId7" display="https://detail.1688.com/offer/706516103752.html?_t=1679404722645&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="B11" r:id="rId8" display="https://detail.1688.com/offer/704879464336.html?_t=1679404747601&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="B12" r:id="rId9" display="https://detail.1688.com/offer/701413115226.html?_t=1679404825724&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="B13" r:id="rId10" display="https://detail.1688.com/offer/687983545608.html?_t=1679404842269&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0" tooltip="https://detail.1688.com/offer/687983545608.html?_t=1679404842269&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="B14" r:id="rId11" display="https://detail.1688.com/offer/631132088745.html?spm=a360q.7751291.0.0.10c63138P9CXm4" tooltip="https://detail.1688.com/offer/631132088745.html?spm=a360q.7751291.0.0.10c63138P9CXm4"/>
+    <hyperlink ref="G4" r:id="rId1" display="https://detail.1688.com/offer/703224144496.html?_t=1679404315270&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="G5" r:id="rId2" display="https://detail.1688.com/offer/703703041747.html?_t=1679404372448&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="G6" r:id="rId3" display="https://detail.1688.com/offer/701961427186.html?_t=1679404394156&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="G7" r:id="rId4" display="https://detail.1688.com/offer/670459086124.html?_t=1679404643337&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="G8" r:id="rId5" display="https://detail.1688.com/offer/677511886339.html?spm=a2615.2177701.shopprom.6.5ec874dfbzXyIS"/>
+    <hyperlink ref="G9" r:id="rId6" display="https://detail.1688.com/offer/678209096366.html?_t=1679404686647&amp;spm=a2615.7691456.co_1_0_tradenumdown_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="G10" r:id="rId7" display="https://detail.1688.com/offer/706516103752.html?_t=1679404722645&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="G11" r:id="rId8" display="https://detail.1688.com/offer/704879464336.html?_t=1679404747601&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="G12" r:id="rId9" display="https://detail.1688.com/offer/701413115226.html?_t=1679404825724&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="G13" r:id="rId10" display="https://detail.1688.com/offer/687983545608.html?_t=1679404842269&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0" tooltip="https://detail.1688.com/offer/687983545608.html?_t=1679404842269&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="G14" r:id="rId11" display="https://detail.1688.com/offer/631132088745.html?spm=a360q.7751291.0.0.10c63138P9CXm4" tooltip="https://detail.1688.com/offer/631132088745.html?spm=a360q.7751291.0.0.10c63138P9CXm4"/>
+    <hyperlink ref="G17" r:id="rId12" display="https://detail.1688.com/offer/627929601795.html?spm=a360q.7751291.0.0.432d3138NNYxTL"/>
+    <hyperlink ref="L4" r:id="rId1" display="https://detail.1688.com/offer/703224144496.html?_t=1679404315270&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="L5" r:id="rId2" display="https://detail.1688.com/offer/703703041747.html?_t=1679404372448&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="L6" r:id="rId3" display="https://detail.1688.com/offer/701961427186.html?_t=1679404394156&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="L7" r:id="rId4" display="https://detail.1688.com/offer/670459086124.html?_t=1679404643337&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="L8" r:id="rId5" display="https://detail.1688.com/offer/677511886339.html?spm=a2615.2177701.shopprom.6.5ec874dfbzXyIS"/>
+    <hyperlink ref="L9" r:id="rId6" display="https://detail.1688.com/offer/678209096366.html?_t=1679404686647&amp;spm=a2615.7691456.co_1_0_tradenumdown_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="L10" r:id="rId7" display="https://detail.1688.com/offer/706516103752.html?_t=1679404722645&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="L11" r:id="rId8" display="https://detail.1688.com/offer/704879464336.html?_t=1679404747601&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="L12" r:id="rId9" display="https://detail.1688.com/offer/701413115226.html?_t=1679404825724&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="L13" r:id="rId10" display="https://detail.1688.com/offer/687983545608.html?_t=1679404842269&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0" tooltip="https://detail.1688.com/offer/687983545608.html?_t=1679404842269&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="L14" r:id="rId11" display="https://detail.1688.com/offer/631132088745.html?spm=a360q.7751291.0.0.10c63138P9CXm4" tooltip="https://detail.1688.com/offer/631132088745.html?spm=a360q.7751291.0.0.10c63138P9CXm4"/>
+    <hyperlink ref="L17" r:id="rId12" display="https://detail.1688.com/offer/627929601795.html?spm=a360q.7751291.0.0.432d3138NNYxTL"/>
+    <hyperlink ref="B17" r:id="rId12" display="https://detail.1688.com/offer/627929601795.html?spm=a360q.7751291.0.0.432d3138NNYxTL"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:N17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetData>
+    <row r="2" ht="17.55" spans="2:14">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="34" spans="2:14">
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="34" spans="2:14">
+      <c r="B8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" ht="25" customHeight="1" spans="2:4">
-      <c r="B11" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="G10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" ht="17.55" spans="2:14">
+      <c r="B13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="C14" s="11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" ht="25" customHeight="1" spans="2:4">
-      <c r="B12" s="11" t="s">
+      <c r="D14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="G14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" ht="17.55" spans="2:14">
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="C15" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" ht="17.55" spans="2:4">
-      <c r="B14" t="s">
+      <c r="D15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" ht="17.55" spans="2:4">
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" ht="17.55" spans="2:14">
+      <c r="B16" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="C16" s="13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" ht="17.55" spans="2:4">
-      <c r="B16" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" ht="17.55" spans="2:14">
+      <c r="B17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>43</v>
       </c>
+      <c r="D17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="L2:N2"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://detail.1688.com/offer/703224144496.html?_t=1679404315270&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://detail.1688.com/offer/703703041747.html?_t=1679404372448&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://detail.1688.com/offer/701961427186.html?_t=1679404394156&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
-    <hyperlink ref="B6" r:id="rId4" display="https://detail.1688.com/offer/670459086124.html?_t=1679404643337&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
-    <hyperlink ref="B7" r:id="rId5" display="https://detail.1688.com/offer/677511886339.html?spm=a2615.2177701.shopprom.6.5ec874dfbzXyIS"/>
-    <hyperlink ref="B8" r:id="rId6" display="https://detail.1688.com/offer/678209096366.html?_t=1679404686647&amp;spm=a2615.7691456.co_1_0_tradenumdown_0_0_0_0_0_0_0000_0.0"/>
-    <hyperlink ref="B9" r:id="rId7" display="https://detail.1688.com/offer/706516103752.html?_t=1679404722645&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
-    <hyperlink ref="B10" r:id="rId8" display="https://detail.1688.com/offer/704879464336.html?_t=1679404747601&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
-    <hyperlink ref="B11" r:id="rId9" display="https://detail.1688.com/offer/701413115226.html?_t=1679404825724&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
-    <hyperlink ref="B12" r:id="rId10" display="https://detail.1688.com/offer/687983545608.html?_t=1679404842269&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0" tooltip="https://detail.1688.com/offer/687983545608.html?_t=1679404842269&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
-    <hyperlink ref="B13" r:id="rId11" display="https://detail.1688.com/offer/631132088745.html?spm=a360q.7751291.0.0.10c63138P9CXm4" tooltip="https://detail.1688.com/offer/631132088745.html?spm=a360q.7751291.0.0.10c63138P9CXm4"/>
-    <hyperlink ref="B16" r:id="rId12" display="https://detail.1688.com/offer/627929601795.html?spm=a360q.7751291.0.0.432d3138NNYxTL"/>
+    <hyperlink ref="B4" r:id="rId1" display="https://detail.1688.com/offer/703224144496.html?_t=1679404315270&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://detail.1688.com/offer/703703041747.html?_t=1679404372448&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://detail.1688.com/offer/701961427186.html?_t=1679404394156&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="B7" r:id="rId4" display="https://detail.1688.com/offer/670459086124.html?_t=1679404643337&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="B8" r:id="rId5" display="https://detail.1688.com/offer/677511886339.html?spm=a2615.2177701.shopprom.6.5ec874dfbzXyIS"/>
+    <hyperlink ref="B9" r:id="rId6" display="https://detail.1688.com/offer/678209096366.html?_t=1679404686647&amp;spm=a2615.7691456.co_1_0_tradenumdown_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="B10" r:id="rId7" display="https://detail.1688.com/offer/706516103752.html?_t=1679404722645&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="B11" r:id="rId8" display="https://detail.1688.com/offer/704879464336.html?_t=1679404747601&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="B12" r:id="rId9" display="https://detail.1688.com/offer/701413115226.html?_t=1679404825724&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="B13" r:id="rId10" display="https://detail.1688.com/offer/687983545608.html?_t=1679404842269&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0" tooltip="https://detail.1688.com/offer/687983545608.html?_t=1679404842269&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="B14" r:id="rId11" display="https://detail.1688.com/offer/631132088745.html?spm=a360q.7751291.0.0.10c63138P9CXm4" tooltip="https://detail.1688.com/offer/631132088745.html?spm=a360q.7751291.0.0.10c63138P9CXm4"/>
+    <hyperlink ref="G4" r:id="rId1" display="https://detail.1688.com/offer/703224144496.html?_t=1679404315270&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="G5" r:id="rId2" display="https://detail.1688.com/offer/703703041747.html?_t=1679404372448&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="G6" r:id="rId3" display="https://detail.1688.com/offer/701961427186.html?_t=1679404394156&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="G7" r:id="rId4" display="https://detail.1688.com/offer/670459086124.html?_t=1679404643337&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="G8" r:id="rId5" display="https://detail.1688.com/offer/677511886339.html?spm=a2615.2177701.shopprom.6.5ec874dfbzXyIS"/>
+    <hyperlink ref="G9" r:id="rId6" display="https://detail.1688.com/offer/678209096366.html?_t=1679404686647&amp;spm=a2615.7691456.co_1_0_tradenumdown_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="G10" r:id="rId7" display="https://detail.1688.com/offer/706516103752.html?_t=1679404722645&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="G11" r:id="rId8" display="https://detail.1688.com/offer/704879464336.html?_t=1679404747601&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="G12" r:id="rId9" display="https://detail.1688.com/offer/701413115226.html?_t=1679404825724&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="G13" r:id="rId10" display="https://detail.1688.com/offer/687983545608.html?_t=1679404842269&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0" tooltip="https://detail.1688.com/offer/687983545608.html?_t=1679404842269&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="G14" r:id="rId11" display="https://detail.1688.com/offer/631132088745.html?spm=a360q.7751291.0.0.10c63138P9CXm4" tooltip="https://detail.1688.com/offer/631132088745.html?spm=a360q.7751291.0.0.10c63138P9CXm4"/>
+    <hyperlink ref="G17" r:id="rId12" display="https://detail.1688.com/offer/627929601795.html?spm=a360q.7751291.0.0.432d3138NNYxTL"/>
+    <hyperlink ref="L4" r:id="rId1" display="https://detail.1688.com/offer/703224144496.html?_t=1679404315270&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="L5" r:id="rId2" display="https://detail.1688.com/offer/703703041747.html?_t=1679404372448&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="L6" r:id="rId3" display="https://detail.1688.com/offer/701961427186.html?_t=1679404394156&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="L7" r:id="rId4" display="https://detail.1688.com/offer/670459086124.html?_t=1679404643337&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="L8" r:id="rId5" display="https://detail.1688.com/offer/677511886339.html?spm=a2615.2177701.shopprom.6.5ec874dfbzXyIS"/>
+    <hyperlink ref="L9" r:id="rId6" display="https://detail.1688.com/offer/678209096366.html?_t=1679404686647&amp;spm=a2615.7691456.co_1_0_tradenumdown_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="L10" r:id="rId7" display="https://detail.1688.com/offer/706516103752.html?_t=1679404722645&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="L11" r:id="rId8" display="https://detail.1688.com/offer/704879464336.html?_t=1679404747601&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="L12" r:id="rId9" display="https://detail.1688.com/offer/701413115226.html?_t=1679404825724&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="L13" r:id="rId10" display="https://detail.1688.com/offer/687983545608.html?_t=1679404842269&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0" tooltip="https://detail.1688.com/offer/687983545608.html?_t=1679404842269&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
+    <hyperlink ref="L14" r:id="rId11" display="https://detail.1688.com/offer/631132088745.html?spm=a360q.7751291.0.0.10c63138P9CXm4" tooltip="https://detail.1688.com/offer/631132088745.html?spm=a360q.7751291.0.0.10c63138P9CXm4"/>
+    <hyperlink ref="L17" r:id="rId12" display="https://detail.1688.com/offer/627929601795.html?spm=a360q.7751291.0.0.432d3138NNYxTL"/>
+    <hyperlink ref="B17" r:id="rId12" display="https://detail.1688.com/offer/627929601795.html?spm=a360q.7751291.0.0.432d3138NNYxTL"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/副本工作簿1.xlsx
+++ b/副本工作簿1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="45">
   <si>
     <t>女装产品编码对照表</t>
   </si>
@@ -158,10 +158,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -201,6 +201,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -223,14 +230,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -246,10 +245,42 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,48 +306,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,6 +320,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -343,37 +343,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,133 +505,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,6 +666,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -683,20 +692,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,6 +710,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,31 +759,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,85 +768,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -855,7 +855,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -864,28 +864,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -894,22 +894,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1281,7 +1281,7 @@
   <dimension ref="B2:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73076923076923" defaultRowHeight="16.8"/>
@@ -1354,9 +1354,7 @@
       <c r="I4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="L4" s="5"/>
       <c r="M4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1374,9 +1372,7 @@
       <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="G5" s="5"/>
       <c r="H5" s="9" t="s">
         <v>8</v>
       </c>
@@ -1490,9 +1486,7 @@
       <c r="D9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="G9" s="8"/>
       <c r="H9" s="9" t="s">
         <v>20</v>
       </c>
@@ -1665,7 +1659,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" ht="17.55" spans="2:4">
       <c r="B16" t="s">
         <v>40</v>
       </c>
@@ -1676,7 +1670,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" ht="17.55" spans="2:4">
       <c r="B17" s="16" t="s">
         <v>40</v>
       </c>
@@ -1706,16 +1700,13 @@
     <hyperlink ref="B13" r:id="rId10" display="https://detail.1688.com/offer/687983545608.html?_t=1679404842269&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0" tooltip="https://detail.1688.com/offer/687983545608.html?_t=1679404842269&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
     <hyperlink ref="B14" r:id="rId11" display="https://detail.1688.com/offer/631132088745.html?spm=a360q.7751291.0.0.10c63138P9CXm4" tooltip="https://detail.1688.com/offer/631132088745.html?spm=a360q.7751291.0.0.10c63138P9CXm4"/>
     <hyperlink ref="G4" r:id="rId1" display="https://detail.1688.com/offer/703224144496.html?_t=1679404315270&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
-    <hyperlink ref="G5" r:id="rId2" display="https://detail.1688.com/offer/703703041747.html?_t=1679404372448&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
     <hyperlink ref="G6" r:id="rId3" display="https://detail.1688.com/offer/701961427186.html?_t=1679404394156&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
     <hyperlink ref="G7" r:id="rId4" display="https://detail.1688.com/offer/670459086124.html?_t=1679404643337&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
     <hyperlink ref="G8" r:id="rId5" display="https://detail.1688.com/offer/677511886339.html?spm=a2615.2177701.shopprom.6.5ec874dfbzXyIS"/>
-    <hyperlink ref="G9" r:id="rId6" display="https://detail.1688.com/offer/678209096366.html?_t=1679404686647&amp;spm=a2615.7691456.co_1_0_tradenumdown_0_0_0_0_0_0_0000_0.0"/>
     <hyperlink ref="G10" r:id="rId7" display="https://detail.1688.com/offer/706516103752.html?_t=1679404722645&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
     <hyperlink ref="G11" r:id="rId10" display="https://detail.1688.com/offer/687983545608.html?_t=1679404842269&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0" tooltip="https://detail.1688.com/offer/687983545608.html?_t=1679404842269&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
     <hyperlink ref="G12" r:id="rId11" display="https://detail.1688.com/offer/631132088745.html?spm=a360q.7751291.0.0.10c63138P9CXm4" tooltip="https://detail.1688.com/offer/631132088745.html?spm=a360q.7751291.0.0.10c63138P9CXm4"/>
     <hyperlink ref="G15" r:id="rId12" display="https://detail.1688.com/offer/627929601795.html?spm=a360q.7751291.0.0.432d3138NNYxTL"/>
-    <hyperlink ref="L4" r:id="rId1" display="https://detail.1688.com/offer/703224144496.html?_t=1679404315270&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
     <hyperlink ref="L5" r:id="rId2" display="https://detail.1688.com/offer/703703041747.html?_t=1679404372448&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
     <hyperlink ref="L6" r:id="rId3" display="https://detail.1688.com/offer/701961427186.html?_t=1679404394156&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
     <hyperlink ref="L7" r:id="rId4" display="https://detail.1688.com/offer/670459086124.html?_t=1679404643337&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0"/>
